--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H2">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.8423543498128889</v>
+        <v>1.60110546077</v>
       </c>
       <c r="R2">
-        <v>7.581189148316001</v>
+        <v>14.40994914693</v>
       </c>
       <c r="S2">
-        <v>0.002344120508892157</v>
+        <v>0.005196282997836488</v>
       </c>
       <c r="T2">
-        <v>0.002344120508892157</v>
+        <v>0.005196282997836489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H3">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>8.266997693340445</v>
+        <v>13.920071858346</v>
       </c>
       <c r="R3">
-        <v>74.402979240064</v>
+        <v>125.280646725114</v>
       </c>
       <c r="S3">
-        <v>0.02300556629668748</v>
+        <v>0.04517668229761671</v>
       </c>
       <c r="T3">
-        <v>0.02300556629668747</v>
+        <v>0.04517668229761672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H4">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>2.008569857493333</v>
+        <v>1.2498886639</v>
       </c>
       <c r="R4">
-        <v>18.07712871744</v>
+        <v>11.2489979751</v>
       </c>
       <c r="S4">
-        <v>0.005589488316334539</v>
+        <v>0.004056431866948155</v>
       </c>
       <c r="T4">
-        <v>0.005589488316334538</v>
+        <v>0.004056431866948155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>117.701738</v>
       </c>
       <c r="I5">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J5">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>4.038451254547112</v>
+        <v>7.097349411545554</v>
       </c>
       <c r="R5">
-        <v>36.34606129092401</v>
+        <v>63.87614470390999</v>
       </c>
       <c r="S5">
-        <v>0.01123828281061047</v>
+        <v>0.02303398307016129</v>
       </c>
       <c r="T5">
-        <v>0.01123828281061047</v>
+        <v>0.0230339830701613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>117.701738</v>
       </c>
       <c r="I6">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J6">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>39.63399395209956</v>
+        <v>61.70462610563534</v>
       </c>
       <c r="R6">
-        <v>356.705945568896</v>
+        <v>555.341634950718</v>
       </c>
       <c r="S6">
-        <v>0.110294269974461</v>
+        <v>0.2002583261232346</v>
       </c>
       <c r="T6">
-        <v>0.1102942699744609</v>
+        <v>0.2002583261232347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>117.701738</v>
       </c>
       <c r="I7">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J7">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>9.629571524906666</v>
+        <v>5.540482367077779</v>
       </c>
       <c r="R7">
-        <v>86.66614372416001</v>
+        <v>49.86434130370001</v>
       </c>
       <c r="S7">
-        <v>0.02679736396967823</v>
+        <v>0.01798127295750621</v>
       </c>
       <c r="T7">
-        <v>0.02679736396967822</v>
+        <v>0.01798127295750622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H8">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I8">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J8">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>10.22141218555956</v>
+        <v>9.122707834254999</v>
       </c>
       <c r="R8">
-        <v>91.99270967003602</v>
+        <v>82.10437050829499</v>
       </c>
       <c r="S8">
-        <v>0.02844434998089891</v>
+        <v>0.02960715129318932</v>
       </c>
       <c r="T8">
-        <v>0.02844434998089891</v>
+        <v>0.02960715129318933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H9">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I9">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J9">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>100.3145421869938</v>
+        <v>79.313169373899</v>
       </c>
       <c r="R9">
-        <v>902.8308796829441</v>
+        <v>713.8185243650911</v>
       </c>
       <c r="S9">
-        <v>0.2791573115671488</v>
+        <v>0.2574057010110469</v>
       </c>
       <c r="T9">
-        <v>0.2791573115671487</v>
+        <v>0.257405701011047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H10">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I10">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J10">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>24.37266504469334</v>
+        <v>7.121560312850002</v>
       </c>
       <c r="R10">
-        <v>219.35398540224</v>
+        <v>64.09404281565001</v>
       </c>
       <c r="S10">
-        <v>0.06782473907841206</v>
+        <v>0.02311255796600238</v>
       </c>
       <c r="T10">
-        <v>0.06782473907841205</v>
+        <v>0.02311255796600238</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H11">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I11">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J11">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N11">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q11">
-        <v>1.255756540053556</v>
+        <v>0.5915348968244443</v>
       </c>
       <c r="R11">
-        <v>11.301808860482</v>
+        <v>5.323814071419999</v>
       </c>
       <c r="S11">
-        <v>0.003494544380721562</v>
+        <v>0.001919787798061462</v>
       </c>
       <c r="T11">
-        <v>0.003494544380721561</v>
+        <v>0.001919787798061463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H12">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I12">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J12">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N12">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O12">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P12">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q12">
-        <v>12.32419162116978</v>
+        <v>5.142826923190666</v>
       </c>
       <c r="R12">
-        <v>110.917724590528</v>
+        <v>46.285442308716</v>
       </c>
       <c r="S12">
-        <v>0.03429600659285267</v>
+        <v>0.01669070823663268</v>
       </c>
       <c r="T12">
-        <v>0.03429600659285266</v>
+        <v>0.01669070823663269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H13">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I13">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J13">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N13">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O13">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P13">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q13">
-        <v>2.994315557653334</v>
+        <v>0.4617764288222223</v>
       </c>
       <c r="R13">
-        <v>26.94884001888</v>
+        <v>4.1559878594</v>
       </c>
       <c r="S13">
-        <v>0.008332641138909256</v>
+        <v>0.00149866518145319</v>
       </c>
       <c r="T13">
-        <v>0.008332641138909252</v>
+        <v>0.00149866518145319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H14">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I14">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J14">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N14">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q14">
-        <v>3.508520193254223</v>
+        <v>8.515778368664998</v>
       </c>
       <c r="R14">
-        <v>31.57668173928801</v>
+        <v>76.642005317985</v>
       </c>
       <c r="S14">
-        <v>0.009763580069001094</v>
+        <v>0.02763740142960782</v>
       </c>
       <c r="T14">
-        <v>0.009763580069001094</v>
+        <v>0.02763740142960783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H15">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I15">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J15">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N15">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O15">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P15">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q15">
-        <v>34.43316740883911</v>
+        <v>74.036501483517</v>
       </c>
       <c r="R15">
-        <v>309.898506679552</v>
+        <v>666.3285133516531</v>
       </c>
       <c r="S15">
-        <v>0.09582130599444998</v>
+        <v>0.2402806206738433</v>
       </c>
       <c r="T15">
-        <v>0.09582130599444996</v>
+        <v>0.2402806206738433</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H16">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I16">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J16">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N16">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O16">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P16">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q16">
-        <v>8.365966064213334</v>
+        <v>6.647766251550001</v>
       </c>
       <c r="R16">
-        <v>75.29369457792001</v>
+        <v>59.82989626395001</v>
       </c>
       <c r="S16">
-        <v>0.02328097745583484</v>
+        <v>0.02157489034476706</v>
       </c>
       <c r="T16">
-        <v>0.02328097745583483</v>
+        <v>0.02157489034476706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H17">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I17">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J17">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N17">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q17">
-        <v>7.359646655186001</v>
+        <v>2.487713518203333</v>
       </c>
       <c r="R17">
-        <v>66.23681989667401</v>
+        <v>22.38942166383</v>
       </c>
       <c r="S17">
-        <v>0.02048057170530812</v>
+        <v>0.008073711429296616</v>
       </c>
       <c r="T17">
-        <v>0.02048057170530812</v>
+        <v>0.008073711429296616</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H18">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I18">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J18">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N18">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O18">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P18">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q18">
-        <v>72.22872646854401</v>
+        <v>21.628276078526</v>
       </c>
       <c r="R18">
-        <v>650.058538216896</v>
+        <v>194.654484706734</v>
       </c>
       <c r="S18">
-        <v>0.2009995426315363</v>
+        <v>0.07019315467533886</v>
       </c>
       <c r="T18">
-        <v>0.2009995426315362</v>
+        <v>0.07019315467533888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H19">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I19">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J19">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N19">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O19">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P19">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q19">
-        <v>17.54886697824</v>
+        <v>1.942011317566667</v>
       </c>
       <c r="R19">
-        <v>157.93980280416</v>
+        <v>17.4781018581</v>
       </c>
       <c r="S19">
-        <v>0.04883533752826272</v>
+        <v>0.006302670647456697</v>
       </c>
       <c r="T19">
-        <v>0.04883533752826272</v>
+        <v>0.006302670647456697</v>
       </c>
     </row>
   </sheetData>
